--- a/mbs-perturbation/mega/multinomialNB/smote/mega-multinomialNB-smote-results.xlsx
+++ b/mbs-perturbation/mega/multinomialNB/smote/mega-multinomialNB-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5729537366548043</v>
+        <v>0.5311203319502075</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6102150537634409</v>
+        <v>0.5443786982248521</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5830208953377809</v>
+        <v>0.5227214377406932</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6102150537634409</v>
+        <v>0.5443786982248521</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7361111111111112</v>
+        <v>0.7581699346405228</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6827956989247312</v>
+        <v>0.7337278106508875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6787000439174353</v>
+        <v>0.7331298031371722</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6827956989247311</v>
+        <v>0.7337278106508875</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7283236994219653</v>
+        <v>0.6907894736842105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7123655913978495</v>
+        <v>0.6715976331360947</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7120138914010781</v>
+        <v>0.6707647755693036</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7123655913978494</v>
+        <v>0.6715976331360946</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8188405797101449</v>
+        <v>0.9461538461538461</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7361958732926475</v>
+        <v>0.8431952662721893</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7315405517159903</v>
+        <v>0.8410794602698651</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7361958732926476</v>
+        <v>0.8431952662721893</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9328358208955224</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8136442894507411</v>
+        <v>0.8106508875739644</v>
       </c>
       <c r="D6" t="n">
-        <v>0.810289246092621</v>
+        <v>0.8079613650083448</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8136442894507412</v>
+        <v>0.8106508875739644</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7578129895587097</v>
+        <v>0.7666420661229667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.711043301365882</v>
+        <v>0.7207100591715976</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7031129256929811</v>
+        <v>0.7151313683450757</v>
       </c>
       <c r="E7" t="n">
-        <v>0.711043301365882</v>
+        <v>0.7207100591715976</v>
       </c>
     </row>
   </sheetData>
